--- a/cms/language/技能翻译需求.xlsx
+++ b/cms/language/技能翻译需求.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/cms/language/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/资源提交目录/cms/language/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37960" windowHeight="20000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20000"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -31,85 +31,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="1345">
   <si>
     <t>牺牲</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Restoration</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>皮影戏</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>大瀑布术</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>瀑布急流</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Frost Touch</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>冰冷触摸</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Liquid Sphere</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>崇高牺牲</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Shadowstorm</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Take Root</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>生根</t>
   </si>
   <si>
     <t>Surge</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Deep Intellect</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>深深智慧</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Healing Well</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Deathly Beauty</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>倾国倾城</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Joker's Wit</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Dark Devices</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultShuigui3</t>
@@ -302,243 +302,243 @@
   </si>
   <si>
     <t>Soulfire</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Rush</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Lycan Bite</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>治疗之雨</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>治疗薄雾</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Dying Sacrifice</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Shadow Bomb</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>暗影爆炸</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Noble Sacrifice</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvCike4（复用）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultXiaochou3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvXiaochou3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultXiaochou4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvXiaochou4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultKairuisi4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvKairuisi4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultHetong2Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvHetong2Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultWagui3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvWagui3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultHuapo2Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvHuapo2Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultCike4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvCike4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultPanshen2Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvPanshen2Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultWushi4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvWushi4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultWushi3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvWushi3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultXiyiren4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvXiyiren4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultXiyiren2Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvXiyiren2Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultMantuoluo2Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvMantuoluo2Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultHetong3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvHetong3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultLonggongtongzi3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvLonggongtongzi3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultLangren5Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvLangren5Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultLangren3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultKairuisi5Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvKairuisi5Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultNvyao5Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvCike4Name（复用）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvNvyao5Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultHapi1Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvHapi1Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultPiying5Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvPiying5Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultShuigui3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvShuigui3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie11Xiaochou41Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie11Xiaochou42Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie11Xiaochou43Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie12Mantuoluo21Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie12Mantuoluo22Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie12Mantuoluo23Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>spellID</t>
@@ -623,143 +623,143 @@
   </si>
   <si>
     <t>bossdajie15Huapo24Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie16Xiaochou31Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie16Xiaochou32Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie16Xiaochou33Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie16Xiaochou34Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie16Xiaochou35Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie17Zouyincao21Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie17Zouyincao22Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie17Zouyincao23Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang21Wushi41Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang21Wushi42Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang21Wushi43Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang21Wushi44Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang22Xiyiren21Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang22Xiyiren22Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang22Xiyiren23Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang22Xiyiren24Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang23Panshen21Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang23Panshen22Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang23Panshen23Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang23Panshen24Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang24Shuigui31Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang24Shuigui32Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang24Shuigui33Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang24Shuigui34Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang25Kairuisi51Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang25Kairuisi52Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang25Kairuisi53Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang25Kairuisi54Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang25Kairuisi55Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang26Longgongtongzi32Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang26Longgongtongzi33Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang27hetong21Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang27hetong22Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang27hetong23Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>惊喜箱子</t>
@@ -814,383 +814,383 @@
   </si>
   <si>
     <t>psvCike4</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultKairuisi4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvKairuisi4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultHetong2Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvHetong2Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultWagui3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvWagui3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultHuapo2Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvHuapo2Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultCike4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvCike4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultPanshen2Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvPanshen2Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultWushi4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvWushi4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultWushi3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvWushi3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultXiyiren4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvXiyiren4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultXiyiren2Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvXiyiren2Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultMantuoluo2Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvMantuoluo2Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultHetong3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvHetong3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultLonggongtongzi3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvLonggongtongzi3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultLangren5Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvLangren5Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultLangren3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvCike4Tips（复用）</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultKairuisi5Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvKairuisi5Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultNvyao5Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvNvyao5Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultHapi1Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvHapi1Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultPiying5Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvPiying5Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultShuigui3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvShuigui3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie11Xiaochou41Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie11Xiaochou42Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie11Xiaochou43Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie12Mantuoluo21Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie12Mantuoluo22Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie12Mantuoluo23Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie12Mantuoluo24Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie13Langren31Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie13Langren32Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie12Mantuoluo24Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie13Langren31Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie13Langren32Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie13Langren33Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie13Langren34Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie14Piying51Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie14Piying52Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie14Piying53Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie14Piying54Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie15Huapo21Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie15Huapo22Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie15Huapo23Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie16Xiaochou33Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie16Xiaochou34Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie16Xiaochou35Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie17Zouyincao21Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie17Zouyincao22Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie17Zouyincao23Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang21Wushi41Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang21Wushi42Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang21Wushi43Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang21Wushi44Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang22Xiyiren21Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang22Xiyiren22Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang22Xiyiren23Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang22Xiyiren24Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang23Panshen21Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang23Panshen22Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang23Panshen23Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang23Panshen24Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang24Shuigui31Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang24Shuigui32Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang24Shuigui33Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang24Shuigui34Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang25Kairuisi51Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang25Kairuisi52Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang25Kairuisi53Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang25Kairuisi55Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang26Longgongtongzi31Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang26Longgongtongzi32Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang26Longgongtongzi33Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang26Longgongtongzi34Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang27hetong21Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang27hetong22Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang27hetong23Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>火焰旋风</t>
@@ -1275,7 +1275,7 @@
   </si>
   <si>
     <t>ultKairuisi5</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>黑暗之光</t>
@@ -1303,23 +1303,23 @@
   </si>
   <si>
     <t>psvXiaochou3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultXiaochou4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvXiaochou4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Razorleaves</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Resolute Will</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>吸取养分</t>
@@ -1425,35 +1425,35 @@
   </si>
   <si>
     <t>永久提升10%智力</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>血量小于等于总血量XX%时，提升自身XX%智力</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>血量小于等于总血量XX%时，提升自身XX%速度</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>永久提升10%暴击率</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>死亡时，己方全体回复XX%法攻的生命值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标回复XX%法攻的生命值并附加恢复术效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>使用法术技能时，XX%给被攻击者附加痛楚效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给自身回复XX%法攻的生命值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的水属性法术伤害</t>
@@ -1514,294 +1514,294 @@
   </si>
   <si>
     <t>使用法术技能时，XX%提升自身XX%智力，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标回复XX%法攻的生命值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给自身回复大量生命值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%物攻的水属性物理伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标连续造成5次XX%物攻的水属性物理伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%法攻的暗属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>使单体目标智力降低XX%，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie13Langren33Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie13Langren34Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie14Piying51Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie14Piying52Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie14Piying53Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie14Piying54Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie15Huapo21Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie15Huapo22Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie15Huapo23Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie15Huapo24Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie16Xiaochou31Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie16Xiaochou32Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Duel Demand</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Scorn</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Rampage</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Charge</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Inspire</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Ancient Force</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Roar</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Bashful</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Tidal Wave</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Rugged Formation</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Healing Mist</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Dragon Wrath</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>疯狂撕咬</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Dark Judgement</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Curse</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Shadow Play</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Torrent</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Fire Cyclone</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Fireball Volley</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Thorns</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Photosynthesis</t>
   </si>
   <si>
     <t>Absorption</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Claw</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Barrier 1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的暗属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%物攻的草属性物理伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%法攻的草属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标连续造成多次XX%物攻的水属性物理伤害，攻击次数会根据弱点调整</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的水属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成水属性法术伤害，伤害量会根据弱点调整</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的草属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>提升自身XX%防御力，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%法攻的火属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>提升自身XX%智力，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的火属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%物攻的草属性物理伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%法攻的草属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%物攻的草属性物理伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标连续造成XX次XX%物攻的草属性物理伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%法攻的水属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%物攻的暗属性物理伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%法攻的暗属性法术伤害，看弱点情况附带回复效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%法攻的水属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的水属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>提升自身XX%智力</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>通用</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultXiaochou3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang26Longgongtongzi34Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang26Longgongtongzi31Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang26Longgongtongzi31</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>提升自身XX%速度，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%物攻的草属性物理伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的火属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>嘿！孙子</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>技能名称</t>
@@ -1811,14 +1811,14 @@
     <rPh sb="2" eb="3">
       <t>ming'cheng</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>参考名称</t>
     <rPh sb="0" eb="1">
       <t>can'kao</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>请参考前面的名字给出实际命名</t>
@@ -1846,574 +1846,574 @@
     <rPh sb="12" eb="13">
       <t>ming'ming</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Jack-In-The-Box</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) fire type magic damage to all enemy targets</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>When HP drops below XX% of your total HP amount, increase your INT by XX%</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Carry out actions for 3 seconds, each action dealing (XX% of magic ATK) fire type magic damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Carry out actions for 3 seconds, each action dealing (XX% of magic ATK) grass type magic damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Carry out actions for 3 seconds, each action dealing (XX% of magic ATK) water type magic damage to a single target</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Increases INT permanently by 10%</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Carry out actions for 3 seconds, each action dealing (XX% of physical ATK) dark type physical damage to a single target</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) water type magic damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Whenever you cast a magic ability, there is a XX% chance of increasing your INT by XX% for XX turns </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) water type magic damage to all enemy targets</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Rampant Swipe</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Shadow Tactics</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Crushing Force</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Crushing Intellect</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Thorns</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Toxin</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Noise</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Fire Breath</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Lion Ritual</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Fluster</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Venomous Liquid</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Shockwave</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Tackle</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Sprint</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Rentless Assault</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Dread 1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Shadow Sickle</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Shadow Orb</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Soul Assimilation</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Revive</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Rage</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Waterspout</t>
   </si>
   <si>
     <t>Increases Crit Rate permanently by 10%</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Permanently increases INT by 10%</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Viscous Skin</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Thorn Burst</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Upon dying, reduce all enemies' DEF by XX% for XX turns</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Deals (XX% of magic ATK) dark type magic damage to all enemy targets </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Whenever you cast a magic ability, there is a XX% chance of reducing your target's DEF by XX% for XX turns </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Recovers (XX% of magic ATK) HP for a single target </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Recovers (XX% of magic ATK) HP for all allies</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) water type magic damage to all enemy targets</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Increases all allies' STR and INT by XX% for XX turns</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>When HP drops below XX% of your total HP amount, increase your SPD by XX%</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>When HP drops below XX% of your total HP amount, increase your SPD by XX%</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>At the start of battle, increase all allies' INT by XX% for XX turns</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Whenever you cast a physical ability, there is a XX% chance of casting Provoke on your target for XX turns </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Whenever you cast a physical ability, there is a XX% chance of increasing your STR by XX% for XX turns </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Gives an XX% chance of reducing the SPD of your attacker by XX% whenever you take damage for XX turns</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Provoke all enemy targets for XX turns</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>战斗开始时，优先进行一次物理攻击</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>At the start of battle, have precedence in carrying out one physical attack</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Carry out actions for 3 seconds, each action dealing (XX% of physical ATK) fire type physical damage to a single target</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Carry out actions for 3 seconds, each action dealing (XX% of physical ATK) grass type physical damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) water type magic damage to all enemy targets</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals water type magic damage an enemy target based upon the number of weakpoints</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of physical ATK) water type physical damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>提升自身防御力，提升量会根据弱点个数调整</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Increases your DEF based upon the number of weakpoints</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Repeatedly deals (XX% of physical ATK) water type physical damage 5 times to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) dark type magic damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Reduces STR of a single target by XX% for XX turns</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Reduces INT of a single target by XX% for XX turns</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) dark type magic damage to all enemy targets</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Whenever you cast a buff ability, there is a XX% chance of stunning your target</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) fire type magic damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) fire type magic damage to all enemy targets</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Repeatedly deals (XX% of magic ATK) fire type magic damage 5 times to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of physical ATK) grass type physical damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) grass type magic damage to all enemy targets</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Recovers (XX% of magic ATK) of your HP</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Recovers a large amount of your HP</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Upon dying, recover (XX% of magic ATK) HP for all allies</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) dark type magic damage to all enemy targets</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Whenever you cast a magic ability, there is a XX% chance of dealing your target an additional Anguish effect</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) water type magic damage to all enemy targets with a small chance of stunning effects</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>At the start of battle, increase all allies' DEF by XX% for XX turns</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of physical ATK) dark type physical damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Reduces all enemies' DEF by XX% for XX turns</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) water type magic damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Upon dying, recover HP up to XX% of your total HP amount</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Recovers (XX% of magic ATK) of your HP and buffs healing effects</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) water type magic damage to all enemy targets</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) grass type magic damage to all enemy targets</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) grass type magic damage to all enemy targets</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Increases your DEF by XX% for XX turns</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) fire type magic damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Increase your INT by XX% for XX turns</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) fire type magic damage to all enemy targets</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of physical ATK) grass type physical damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) grass type magic damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of physical ATK) grass type physical damage to all enemy targets</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Increases your SPD by XX% for XX turns</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Repeatedly deals (XX% of physical ATK) grass type physical damage XX times to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) water type magic damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of physical ATK) grass type physical damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) grass type magic damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Repeatedly deals (XX% of physical ATK) water type physical damage to a single target. The number of attacks is based upon the number of weakpoints</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals water type magic damage to a single target based upon the number of weakpoints</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Spike Spray</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>灵魂烈焰</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Orb Barrage</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Vexing Call</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Combustive Shots</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Flame Spray</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>智力压制</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Carry out actions for 3 seconds, each action dealing (XX% of physical ATK) grass type physical damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Gives an XX% chance of casting Provoke on your attacker for XX turns whenever you take damage</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Gives an XX% chance of increasing your INT by XX% for XX turns whenever you take damage</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Whenever you cast a physical ability, there is a XX% chance of recovering (XX% of magic ATK) HP </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) dark type magic damage to all enemy targets with a small chance of Stupefying effect</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Recovers (XX% of magic ATK) HP for all allies, and buffs all healing effects </t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) water type magic damage to all enemy targets</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) grass type damage to a single target each turn for 3 turns</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Increases your INT by XX%</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Repeatedly deals (XX% of magic ATK) grass type magic damage XX times to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>Flamestorm</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Floodstorm</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Return To Youth</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Blood Guzzle</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>火焰重击</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Flame Strike</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Foolhardy</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Duel Summons</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Exhilaration</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Opportune Moment</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>火焰连弹</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Natural Growth</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>连续冲撞</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Scaleskin</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Venomous Liquid</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Lizard Slash</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>震地</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>火焰喷射</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>慌张</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Leaf Darts</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Spike Spray</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Increases your INT by XX% for XX turns</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Deals (XX% of magic ATK) dark type magic damage to a single target</t>
-    <phoneticPr fontId="22" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的水属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>在3秒内进行操作，每次操作给单体目标造成XX%法攻的火属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2432,82 +2432,82 @@
   </si>
   <si>
     <t>给己方全体目标提升XX%力量与智力，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>在3秒内进行操作，每次操作给单体目标造成XX%物攻的火属性物理伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>永久提升10%力量</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>嘲讽敌方全体，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>使用物理技能时，XX%嘲讽被攻击者，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标回复XX%法攻的生命值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>受到伤害时，XX%提高自身XX%智力，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>战斗开始时，提升己方全体XX%防御力，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>使用物理技能时，XX%恢复自身XX%法攻的生命值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的暗属性法术伤害并小概率附加失心效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>使用buff技能时，XX%给被攻击者附加眩晕效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>使单体目标力量降低XX%，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>花刺扫射1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>降低敌方全体XX%防御力，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>死亡时，血量回复为XX%血量上限</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给自身回复XX%法攻的生命值附加回复效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标每回合造成XX%法攻的木属性伤害,持续3回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标连续造成XX次XX%法攻的草属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>目录</t>
     <rPh sb="0" eb="1">
       <t>mu'lu</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>第一二章副本技能</t>
@@ -2523,14 +2523,14 @@
     <rPh sb="6" eb="7">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
       <t>r'q</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>修改内容</t>
@@ -2540,7 +2540,7 @@
     <rPh sb="2" eb="3">
       <t>nei'rong</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>修改人</t>
@@ -2550,22 +2550,22 @@
     <rPh sb="2" eb="3">
       <t>ren</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2015年12月19日</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>kathy</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>创建文档
@@ -2598,7 +2598,7 @@
     <rPh sb="24" eb="25">
       <t>miao'shu</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>修改记录：</t>
@@ -2608,7 +2608,7 @@
     <rPh sb="2" eb="3">
       <t>ji'lu</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>通用技能</t>
@@ -2618,11 +2618,11 @@
     <rPh sb="2" eb="3">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>攻击敌方群体，造成xx%法攻水法术伤害，看弱点情况附带眩晕效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>待处理问题： 
@@ -2702,15 +2702,15 @@
     <rPh sb="112" eb="113">
       <t>zhong</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>第三四章技能</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Xing</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultWendige3</t>
@@ -2981,391 +2981,391 @@
   </si>
   <si>
     <t>ultWendige3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvWendige3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultWendige2Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvWendige2Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultLongnv3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvLongnv3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultMomo1Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvMomo1Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultAmute3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvAmute3Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultLuoxinfu5Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvLuoxinfu5Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultSaibulesi5Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvSaibulesi5Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultHongniu4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvHongniu4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultAnpusha5Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvAnpusha5Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultDaochengsizhong4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvDaochengsizhong4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultHuoniao4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvHuoniao4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultIfrit4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvIfrit4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultMoguguai4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvMoguguai4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultSaibulesi4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvSaibulesi4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultTianshizhang4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvTianshizhang4Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvXiaochou2Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin31Wendige21Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin31Wendige23Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin32Longnv31Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin32Longnv32Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin32Longnv33Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin32Longnv34Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin33Luoxinfu51Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin33Luoxinfu52Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin34Amute31Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin34Amute32Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin34Amute33Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin34Amute34Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin35Xiaochou21Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin35Xiaochou23Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin35Xiaochou24Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin36Momo11Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin36Momo12Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin36Momo13Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin36Momo14Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin37Hapi11Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin37Hapi12Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin37Hapi13Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin37Hapi15Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan41Hongniu41Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan41Hongniu44Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan42Daochengsizhong41Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan42Daochengsizhong42Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan42Daochengsizhong43Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan43Huoniao41Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan43Huoniao42Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan43Huoniao43Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan43Huoniao44Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan44Datiangou41Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan44Datiangou42Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan44Datiangou43Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan44Datiangou44Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan45Saibulesi41Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan45Saibulesi42Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan45Saibulesi43Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan46Tianshizhang41Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan46Tianshizhang43Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan46Tianshizhang46Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan47Ifrit41Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan47Ifrit44Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin38Meidusha25Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin38Meidusha26Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin38Meidusha27Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin38Meidusha28Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan48Hehuaisituosi41Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan48Hehuaisituosi42Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan48Hehuaisituosi43Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan48Hehuaisituosi44Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan48Hehuaisituosi45Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang27hetong24Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang28Muling21Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang28Muling22Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang28Muling23Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang28Muling24Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>抓挠</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>震地</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>木刺</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>践踏</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang27hetong24Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang28Muling22Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang28Muling23Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang28Muling24Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成150%法攻木属性伤害</t>
@@ -3394,375 +3394,375 @@
   <si>
     <t>添加第三四章技能名称与描述，弱点名称与描述翻译需求
 添加木灵技能翻译需求</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang28Muling21Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultWendige3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvWendige3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultWendige2Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvWendige2Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultLongnv3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvLongnv3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultMomo1Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvMomo1Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultAmute3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvAmute3Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultLuoxinfu5Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvLuoxinfu5Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultSaibulesi5Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvSaibulesi5Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultHongniu4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvHongniu4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultAnpusha5Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvAnpusha5Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultDaochengsizhong4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvDaochengsizhong4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultHuoniao4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvHuoniao4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultIfrit4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvIfrit4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultMoguguai4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvMoguguai4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultSaibulesi4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvSaibulesi4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultTianshizhang4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvTianshizhang4Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultXiaochou2Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>psvXiaochou2Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin31Wendige21Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin31Wendige23Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin32Longnv31Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin32Longnv32Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin32Longnv33Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin32Longnv34Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin33Luoxinfu51Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin33Luoxinfu52Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin34Amute31Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin34Amute32Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin34Amute33Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin34Amute34Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin35Xiaochou21Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin35Xiaochou23Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin35Xiaochou24Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin36Momo11Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin36Momo12Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin36Momo13Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin36Momo14Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin37Hapi11Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin37Hapi12Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin37Hapi13Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin37Hapi15Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan41Hongniu41Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan41Hongniu44Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan42Daochengsizhong41Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan42Daochengsizhong42Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan42Daochengsizhong43Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan43Huoniao41Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan43Huoniao42Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan43Huoniao43Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan43Huoniao44Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan44Datiangou41Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan44Datiangou42Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan44Datiangou43Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan44Datiangou44Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan45Saibulesi41Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan45Saibulesi42Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan45Saibulesi43Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan46Tianshizhang41Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan46Tianshizhang43Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan46Tianshizhang46Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan47Ifrit41Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan47Ifrit44Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin38Meidusha25Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin38Meidusha26Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin38Meidusha27Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosssenlin38Meidusha28Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan48Hehuaisituosi41Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan48Hehuaisituosi42Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan48Hehuaisituosi43Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan48Hehuaisituosi44Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bosshuoshan48Hehuaisituosi45Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>撕咬</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>尸毒</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>冥王回归</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>天使祝福</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>龙威</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>水之吐息</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>护佑</t>
@@ -3772,660 +3772,660 @@
   </si>
   <si>
     <t>毒爪</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>毒网</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>火焰连弹</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>愈战愈勇</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>挑战的呐喊</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>魅惑</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>钟鸣</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>涅槃</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>延缓之火</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>净化之焰</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>灼烧</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>成长</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>火磷粉</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>大天使的祝福</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>天佑</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>嘲讽冲撞</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>引诱</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>精神火焰</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ultXiaochou2Name</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>唤枝</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>啃食</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>刺穿</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>水流</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>水浪</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>龙吟</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>潮汐之盾</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>疯狂毒爪</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>水球</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>愤怒</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>神之庇护</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>叶刃</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>叶浪</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>光爆术</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>光疗术</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>光能爆发</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>反伤护盾</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>天使庇护</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>爪击</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>顺风</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>一闪</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>冲撞</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>钟鸣</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>火舌</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>火羽</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>灵魂之焰</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>净化之焰</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>涅槃重生</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>慌乱击</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>唤火术</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>速度爆发</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>须左之炎</t>
   </si>
   <si>
     <t>撕咬</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>地狱之焰</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>圣焰</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>神圣祝福</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>神圣庇护</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>火焰踢</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>拍打</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>乱舞</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>石化光线</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>怒火</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>敲打</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>疯狂制造</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>潘多拉盒子</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>制造之神</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>黄金之网</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>死亡时，给敌方全体附加溺水效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>死亡时，给敌方全体附加施毒效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的暗属性法术伤害概率附加溺水效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>死亡时，降低敌方群体XX%防御力，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>战斗开始时，降低敌方群体XX%防御力，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>在3秒内进行操作，每次操作给单体目标造成XX%物攻的木属性物理伤害概率附加溺水效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标回复XX%法攻的生命值概率附加物理减免护盾</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>使用治疗技能时，XX%给被治疗者添加恢复效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标添加XX%法攻的法术、物理吸收护盾</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标添加痛楚效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的木属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>在3秒内进行操作，每次操作给单体目标造成XX%法攻的暗属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>在3秒内进行操作，每次操作给单体目标造成XX%物攻的火属性物理伤害概率附加嘲讽效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>受到伤害时，XX%降低攻击者XX%速度，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>使单体目标速度，力量，智力，防御下降XX%，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的火属性法术伤害概率附加眩晕效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>使用物理和法术技能时，XX%嘲讽被攻击者，持续XX回合；受到伤害时，XX%给自己添加物理和法术吸收护盾</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>使用物理和法术技能时，XX%嘲讽被攻击者，持续XX回合；首次死亡时回复自身XX%生命值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>首次死亡时回复自身XX%生命值</t>
   </si>
   <si>
     <t>给群体目标造成XX%物攻的火属性物理伤害概率驱散自身减益效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>使用buff技能时，XX%驱散被攻击者增益效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>使用物理技能时，XX%给被攻击者添加点燃效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>永久提升10%体力</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的火属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>在3秒内进行操作，每次操作给单体目标造成XX%法攻的火属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标回复XX%法攻的生命值概率附加物理、法术吸收护盾</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>使用治疗技能时，XX%驱散被治疗者dot效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>在3秒内进行操作，每次操作给单体目标造成XX%物攻的木属性物理伤害概率附加施毒效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossxiaoxiang25Kairuisi54Tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%物攻的木属性物理伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%法攻的水属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的水属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%物攻的木属性物理伤害并回复自身XX%法攻的生命值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的火属性法术伤害附加缓速效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的水属性法术伤害概率附加缓速效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给自身添加物理、法术减免护盾，持续6回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>使用法术技能时，XX%给被攻击者添加痛楚效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%法攻的暗属性法术伤害概率添加痛楚效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给自身添加XX%法攻的物理、法术吸收护盾，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的木属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给敌方目标造成水属性法术伤害，伤害量会根据弱点调整</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给敌方目标造成木属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%法攻的光属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的光属性法术伤害并使自身眩晕1回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>每回合回复自身XX%法攻的生命值</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%物攻的光属性物理伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>提升自身速度，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>bossdajie15Huapo23</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标连续造成多次XX%法攻的暗属性法术伤害概率添加痛楚效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成木属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的光属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成火属性物理伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标连续造成6次XX%物攻的火属性物理伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>受到伤害时，XX%给攻击者添加眩晕效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>受到伤害时，XX%给攻击者添加眩晕效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>受到伤害时，反弹攻击者XX%法攻的光属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标添加点燃效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的火属性法术伤害附加驱散增益效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%物攻的火属性物理伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标连续造成3次XX%法攻的火属性法术伤害，若自身存在增益buff则伤害翻倍</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标连续造成多次XX%法攻的火属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给自身添加免疫物理，法术伤害效果，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的火属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给单体目标造成XX%法攻的木属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的木属性法术伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的火属性法术伤害概率附加点燃效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>提升自身XX%速度，持续XX回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>根据自身生命值，提升自身智力</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%物攻的火属性物理伤害</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%法攻的木属性法术伤害概率附加眩晕效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标添加眩晕效果，持续1回合</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%物攻的火属性物理伤害附加点燃效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>给群体目标造成XX%物攻的火属性物理伤害附加点燃和眩晕效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对应英文</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>弱点名称</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>灵印</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>对应怪物</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>龙女护盾上</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>落新妇</t>
   </si>
   <si>
     <t>左上蜘蛛爪</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>左下蜘蛛爪</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>右上蜘蛛爪</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>右下蜘蛛爪</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>哈皮</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>道成寺钟</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>火鸟</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>大天狗</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>翅膀</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>钟</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>羽毛</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>扇子</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>光环</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>天使长</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>裤脚</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>伊芙利特</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>蛇头</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>美杜莎</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>弱点tips</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>添加dot效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>破坏2处灵印护盾将被击碎</t>
@@ -4435,41 +4435,41 @@
   </si>
   <si>
     <t>提升攻击和治疗效果</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>美杜莎很在意它的头发</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>潘多拉盒子制作工具</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>黄金网制作工具</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>大招能源</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>天使长</t>
     <rPh sb="0" eb="1">
       <t>tian'shi'zhang</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>momo</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>龙女</t>
     <rPh sb="0" eb="1">
       <t>long'nv</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>温迪戈，伊芙利特</t>
@@ -4479,14 +4479,14 @@
     <rPh sb="4" eb="5">
       <t>yi'fu'li'te</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>美杜莎</t>
     <rPh sb="0" eb="1">
       <t>mei'du'sha</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>赫淮斯托斯</t>
@@ -4496,15 +4496,15 @@
     <rPh sb="0" eb="1">
       <t>he'huai'si'tuo'si</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2016年02月23日</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>2016年02月23日</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>弱点描述从技能分页拆出来</t>
@@ -4529,18 +4529,865 @@
     <rPh sb="10" eb="11">
       <t>chu'lai</t>
     </rPh>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>kathy</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soul Seal</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper-left Leg</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lower-left Leg</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper-right Leg</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lower-right Leg</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wings</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bell</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feathers</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fan</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halo</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trousers</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snake Head</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool used to make the Net of Gold</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool used to make Pandora's Box</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medusa really cares about her hair</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increases attack and healing effects</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ult energy source</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protective shield</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Break the Soul Seal in 2 spots and the shield will shatter</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increases DOT effect</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swipe</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earthquake</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splinter</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trample</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂片</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bite</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Death Tide</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deathly Poison</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carry out actions for 3 seconds, each action dealing (XX% of physical ATK) grass type physical damage to a single target, with a chance of Drowning effect</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upon dying, cast Drowning effect on all enemies</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carry out actions for 3 seconds, each action dealing (XX% of physical ATK) grass type physical damage to a single target, with a chance of Poison effect</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upon dying, cast Poison effect on all enemies</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Vapor</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon Power</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅槃</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nirvana</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angelic Blessing</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protection</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return to Hades</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison Net</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stinger</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Blasts</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newfound Courage</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mocking Collision</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warcry</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bewitch</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decoy</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flame Spirit</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bell Chime</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decaying Fire</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一息</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Breath</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purifying Flame</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignition</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gunpowder</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unnatural Growth</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combustive Shots</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newfound Courage</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy Bestowment</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blessing</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤戏法</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summoned Trickery</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tease</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skewer</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grazing</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gusher</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tidal Wave</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon Chant</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散之盾</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dispersion Shield</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染袭击</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infecting Strike</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick Sting</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liquid Sphere</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rage</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使存在</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angelic Presence</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cutting Cards</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Razorleaves</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engulfing Leaves</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light Burst</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Companion Healing</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>过载</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overload</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deflection Shield</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使存在</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claw</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windward Flight</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flash</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tackle</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rentless Assault</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bell Chime</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>照明弹</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flare</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Essence</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Wings</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spirit Fire</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇迹复活</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miracle Recovery</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行击</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flying Attack</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Summon</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruthless Flames</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hell Flames</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Blasts</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacred Flame</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy Cleansing</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sanctuary</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flamefield</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slap</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flurry</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>石化凝视</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Petrifying Gaze</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>狡诈智识</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cunning Intellect</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧碰撞</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burning Impact</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒火中烧</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inner Rage</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pandora's Box</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎镣铐</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Searing Shackles</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>觅焰师</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flameseeker</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) dark type magic damage to all enemy targets, with a chance of Drowning effect</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>At the start of battle, reduces all enemies' defense by XX% for XX turns</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recovers (XX% of magic ATK) HP for all allies, with a chance of casting a physical immunity shield</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whenever you cast a healing ability, there is a XX% chance of giving the target an additional HP regen effect</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casts a shield for allies that can absorb (XX% of magic ATK) physical and magic damage</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whenever you cast a physical or magic ability, there is a XX% chance of provoking the target for XX turns; upon dying the first time, recover XX% of your HP</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casts Anguish effect on all enemy targets</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whenever you cast a magic ability, there is a XX% chance of causing Anguish effect to the target</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carry out actions for 3 seconds, each action dealing (XX% of magic ATK) dark type magic damage to a single target</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>When remaining HP drops below XX%, your INT increases by XX%</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carry out actions for 3 seconds, each action dealing (XX% of physical ATK) fire type physical damage to a single target, with a chance of Provoke effect</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whenever you cast a physical or magic ability, there is a XX% chance of provoking the target for XX turns; whenever you take damage, there is a XX% chance of casting a shield absorbing physical and magic damage</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduces the SPD, STR, INT, and DEF of a single target by XX% for XX turns</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whenever you cast a Buff ability, there is a XX% chance of removing the attacked unit's Buff effects</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) fire type magic damage to all enemy targets, with a chance of stun effect</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whenever you take damage, there is a XX% chance of stunning the attacker</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) fire type magic damage to all enemy targets, with a chance of slow effect</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upon dying the first time, recover XX% of your HP</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of physical ATK) fire type physical damage to all enemy targets, with a chance of removing any debuffs on yourself</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whenever you use a physical ability, there is a XX% chance of causing ignition effect to the target</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) fire type magic damage to all enemies</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increases Power permanently by 10%</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carry out actions for 3 seconds, each action dealing (XX% of magic ATK) fire type magic damage to a single target</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>When remaining HP drops below XX%, your INT increases by XX%</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recovers (XX% of magic ATK) HP for all allies, with a chance of casting a shield that can absorb physical and magic damage</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whenever you cast a healing ability, there is a XX% chance of removing any DOT effect from the target</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) grass type magic damage to all enemy targets</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increases your INT permanently by 10%</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of physical ATK) grass type physical damage to a single target</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of physical ATK) grass type physical damage to a single target, and recover (XX% of magic ATK) of your HP</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) water type magic damage to a single target</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) water type magic damage to all enemy targets</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) water type magic damage to all enemy targets, with a chance of slow effect</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casts a shield on yourself that reduces physical and magic damage for 6 turns</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) dark type magic damage to a single target, with a chance of Anguish effect</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeatedly deals (XX% of magic ATK) dark type magic damage to a single target, with a chance of causing Anguish effect</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) water type magic damage to a single target</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increases your INT by XX% for XX turns</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casts a shield on yourself that absorbs (XX% of magic ATK) physical and magic damage for XX turns</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals grass type magic damage to a single target</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) grass type magic damage to all enemy targets</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) light type magic damage to a single target</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recovers (XX% of magic ATK) HP for a single target</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) light type magic damage to all enemy targets, and stuns yourself for 1 turn</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whenever you take damage, reflect (XX% of magic ATK) light type magic damage back at the attacker</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recovers (XX% of magic ATK) HP for yourself each turn</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of physical ATK) light type physical damage to a single target</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increases your SPD for XX turns</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) light type magic damage to all enemy targets</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals fire type physical damage to a single target</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeatedly deals (XX% of physical ATK) fire type physical damage 6 times to a single target</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) fire type magic damage to a single target</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) fire type magic damage to all enemy targets</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Causes Ignition effect to all enemy targets</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) fire type magic damage to all enemy targets, with a chance of removing buff effects</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recovers a large amount of HP for yourself</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of physical ATK) fire type physical damage to a single target</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increases your SPD by XX% for XX turns</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeatedly deals (XX% of magic ATK) fire type magic damage 3 times to a single target. If you are currently buffed, then the effects will be doubled</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) fire type magic damage to all enemies, with a chance of ignition effect</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repeatedly deals (XX% of magic ATK) fire type magic damage to a single target</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recovers (XX% of magic ATK) HP for a single target</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casts a physical and magic damage immunity effect on yourself for XX turns</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of physical ATK) fire type physical damage to a single target</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals fire type physical damage to a single target</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) grass type magic damage to a single target</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) grass type magic damage to all enemy targets</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of magic ATK) grass type magic damage to all enemy targets, with a chance of stun effect</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increases your INT based upon your HP amount</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of physical ATK) fire type physical damage to all enemy targets</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of physical ATK) fire type physical damage to all enemy targets, with a chance of causing ignition effect</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casts a stun effect on enemy targets for 1 turn</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deals (XX% of physical ATK) fire type physical damage to all enemy targets, with a chance of causing ignition and stun effect</t>
+    <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年02月29日</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新Gabe翻译：木灵技能，第三、四章技能，弱点提示</t>
+    <rPh sb="0" eb="1">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan'yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mu'ling</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>di</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>san</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>si</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ti'shi</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点提示</t>
+    <rPh sb="0" eb="1">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'shi</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4548,6 +5395,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4795,8 +5649,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5006,6 +5865,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -5142,229 +6007,251 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -5694,14 +6581,14 @@
   <dimension ref="B2:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="20.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="54.33203125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
@@ -5727,6 +6614,11 @@
         <v>669</v>
       </c>
     </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>1344</v>
+      </c>
+    </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>665</v>
@@ -5785,9 +6677,15 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="40" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>1343</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
@@ -5959,11 +6857,12 @@
       <c r="E44" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" location="第一二章!A1" display="第一二章副本技能"/>
     <hyperlink ref="B3" location="通用技能!A1" display="通用技能"/>
     <hyperlink ref="B5" location="第三四章!A1" display="第三四章技能"/>
+    <hyperlink ref="B6" location="弱点提示!A1" display="弱点提示"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5977,7 +6876,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5986,9 +6885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A139" sqref="A139:XFD142"/>
+    <sheetView topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H139" sqref="H139:H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -8478,7 +9377,7 @@
       <c r="G138" s="21"/>
       <c r="H138" s="21"/>
     </row>
-    <row r="139" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.15">
       <c r="A139" s="27" t="s">
         <v>747</v>
       </c>
@@ -8488,18 +9387,20 @@
       <c r="C139" s="27" t="s">
         <v>849</v>
       </c>
-      <c r="E139" s="15"/>
+      <c r="E139" s="33" t="s">
+        <v>1163</v>
+      </c>
       <c r="F139" s="27" t="s">
         <v>866</v>
       </c>
       <c r="G139" s="27" t="s">
         <v>857</v>
       </c>
-      <c r="H139" s="27" t="s">
+      <c r="H139" s="18" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:8" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.15">
       <c r="A140" s="27" t="s">
         <v>748</v>
       </c>
@@ -8509,18 +9410,20 @@
       <c r="C140" s="27" t="s">
         <v>850</v>
       </c>
-      <c r="E140" s="15"/>
+      <c r="E140" s="33" t="s">
+        <v>1164</v>
+      </c>
       <c r="F140" s="27" t="s">
         <v>854</v>
       </c>
       <c r="G140" s="27" t="s">
         <v>858</v>
       </c>
-      <c r="H140" s="27" t="s">
+      <c r="H140" s="18" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.15">
       <c r="A141" s="27" t="s">
         <v>749</v>
       </c>
@@ -8530,18 +9433,23 @@
       <c r="C141" s="27" t="s">
         <v>851</v>
       </c>
-      <c r="E141" s="15"/>
+      <c r="D141" s="27" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E141" s="33" t="s">
+        <v>1165</v>
+      </c>
       <c r="F141" s="27" t="s">
         <v>855</v>
       </c>
       <c r="G141" s="27" t="s">
         <v>859</v>
       </c>
-      <c r="H141" s="27" t="s">
+      <c r="H141" s="18" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.15">
       <c r="A142" s="27" t="s">
         <v>750</v>
       </c>
@@ -8551,14 +9459,16 @@
       <c r="C142" s="27" t="s">
         <v>852</v>
       </c>
-      <c r="E142" s="15"/>
+      <c r="E142" s="18" t="s">
+        <v>1166</v>
+      </c>
       <c r="F142" s="27" t="s">
         <v>856</v>
       </c>
       <c r="G142" s="27" t="s">
         <v>860</v>
       </c>
-      <c r="H142" s="27" t="s">
+      <c r="H142" s="18" t="s">
         <v>864</v>
       </c>
     </row>
@@ -8566,7 +9476,7 @@
       <c r="F148" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0"/>
 </worksheet>
@@ -8576,8 +9486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:XFD144"/>
+    <sheetView topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -8589,7 +9499,7 @@
     <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="67" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.6640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -8632,7 +9542,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>671</v>
       </c>
@@ -8642,14 +9552,20 @@
       <c r="C3" s="1" t="s">
         <v>952</v>
       </c>
+      <c r="E3" s="19" t="s">
+        <v>1168</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>867</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H3" s="19" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>672</v>
       </c>
@@ -8659,15 +9575,24 @@
       <c r="C4" s="1" t="s">
         <v>953</v>
       </c>
+      <c r="E4" s="19" t="s">
+        <v>1169</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>868</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H4" s="19" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="21"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>673</v>
       </c>
@@ -8677,14 +9602,20 @@
       <c r="C6" s="1" t="s">
         <v>952</v>
       </c>
+      <c r="E6" s="19" t="s">
+        <v>1168</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>869</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H6" s="19" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>674</v>
       </c>
@@ -8694,15 +9625,21 @@
       <c r="C7" s="1" t="s">
         <v>953</v>
       </c>
+      <c r="E7" s="19" t="s">
+        <v>1170</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>870</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>1027</v>
       </c>
+      <c r="H7" s="19" t="s">
+        <v>1174</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>675</v>
       </c>
@@ -8712,14 +9649,21 @@
       <c r="C9" s="1" t="s">
         <v>957</v>
       </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="19" t="s">
+        <v>1175</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>871</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H9" s="19" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>676</v>
       </c>
@@ -8729,15 +9673,26 @@
       <c r="C10" s="1" t="s">
         <v>956</v>
       </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="19" t="s">
+        <v>1176</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>872</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H10" s="19" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="34"/>
+      <c r="E11" s="21"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>677</v>
       </c>
@@ -8747,14 +9702,23 @@
       <c r="C12" s="1" t="s">
         <v>959</v>
       </c>
+      <c r="D12" s="29" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>1178</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>873</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H12" s="19" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>678</v>
       </c>
@@ -8764,15 +9728,26 @@
       <c r="C13" s="1" t="s">
         <v>955</v>
       </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="19" t="s">
+        <v>1179</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>874</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H13" s="19" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="34"/>
+      <c r="E14" s="21"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>679</v>
       </c>
@@ -8782,14 +9757,21 @@
       <c r="C15" s="1" t="s">
         <v>958</v>
       </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="19" t="s">
+        <v>1180</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>875</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H15" s="19" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>680</v>
       </c>
@@ -8799,15 +9781,26 @@
       <c r="C16" s="1" t="s">
         <v>954</v>
       </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="19" t="s">
+        <v>1181</v>
+      </c>
       <c r="F16" s="1" t="s">
         <v>876</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="19" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="34"/>
+      <c r="E17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>681</v>
       </c>
@@ -8817,14 +9810,21 @@
       <c r="C18" s="1" t="s">
         <v>961</v>
       </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="19" t="s">
+        <v>1182</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>877</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H18" s="19" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>682</v>
       </c>
@@ -8834,15 +9834,26 @@
       <c r="C19" s="1" t="s">
         <v>960</v>
       </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="19" t="s">
+        <v>1183</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>878</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H19" s="19" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="34"/>
+      <c r="E20" s="21"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>683</v>
       </c>
@@ -8852,14 +9863,21 @@
       <c r="C21" s="1" t="s">
         <v>962</v>
       </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="19" t="s">
+        <v>1184</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>879</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H21" s="19" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>684</v>
       </c>
@@ -8869,15 +9887,26 @@
       <c r="C22" s="1" t="s">
         <v>963</v>
       </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="19" t="s">
+        <v>1185</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>880</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H22" s="19" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="34"/>
+      <c r="E23" s="21"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" ht="51" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>685</v>
       </c>
@@ -8887,14 +9916,21 @@
       <c r="C24" s="1" t="s">
         <v>975</v>
       </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="19" t="s">
+        <v>1186</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>881</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H24" s="19" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="68" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>686</v>
       </c>
@@ -8904,15 +9940,26 @@
       <c r="C25" s="1" t="s">
         <v>964</v>
       </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="19" t="s">
+        <v>1187</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>882</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H25" s="19" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="34"/>
+      <c r="E26" s="21"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>687</v>
       </c>
@@ -8922,14 +9969,21 @@
       <c r="C27" s="1" t="s">
         <v>965</v>
       </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="19" t="s">
+        <v>1188</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>883</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H27" s="19" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>688</v>
       </c>
@@ -8939,15 +9993,26 @@
       <c r="C28" s="1" t="s">
         <v>976</v>
       </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="19" t="s">
+        <v>1189</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>884</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H28" s="25" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="34"/>
+      <c r="E29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>689</v>
       </c>
@@ -8957,14 +10022,21 @@
       <c r="C30" s="1" t="s">
         <v>977</v>
       </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="19" t="s">
+        <v>1190</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>885</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H30" s="19" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>690</v>
       </c>
@@ -8974,15 +10046,26 @@
       <c r="C31" s="1" t="s">
         <v>966</v>
       </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="19" t="s">
+        <v>1191</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>886</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H31" s="19" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="34"/>
+      <c r="E32" s="21"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>691</v>
       </c>
@@ -8992,14 +10075,21 @@
       <c r="C33" s="1" t="s">
         <v>968</v>
       </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="19" t="s">
+        <v>1192</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>887</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H33" s="19" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>692</v>
       </c>
@@ -9009,15 +10099,28 @@
       <c r="C34" s="1" t="s">
         <v>967</v>
       </c>
+      <c r="D34" s="29" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>1194</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>888</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H34" s="19" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="34"/>
+      <c r="E35" s="21"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>693</v>
       </c>
@@ -9027,14 +10130,21 @@
       <c r="C36" s="1" t="s">
         <v>969</v>
       </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="19" t="s">
+        <v>1195</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>889</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H36" s="19" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>694</v>
       </c>
@@ -9044,15 +10154,26 @@
       <c r="C37" s="1" t="s">
         <v>970</v>
       </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="19" t="s">
+        <v>1196</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>890</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H37" s="19" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="34"/>
+      <c r="E38" s="21"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>695</v>
       </c>
@@ -9062,14 +10183,21 @@
       <c r="C39" s="1" t="s">
         <v>972</v>
       </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="19" t="s">
+        <v>1197</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>891</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H39" s="19" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>696</v>
       </c>
@@ -9079,15 +10207,26 @@
       <c r="C40" s="1" t="s">
         <v>971</v>
       </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="19" t="s">
+        <v>1198</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>892</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H40" s="19" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="34"/>
+      <c r="E41" s="21"/>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>697</v>
       </c>
@@ -9097,14 +10236,21 @@
       <c r="C42" s="1" t="s">
         <v>962</v>
       </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="35" t="s">
+        <v>1199</v>
+      </c>
       <c r="F42" s="1" t="s">
         <v>893</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H42" s="19" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="51" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>698</v>
       </c>
@@ -9114,15 +10260,26 @@
       <c r="C43" s="1" t="s">
         <v>963</v>
       </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="19" t="s">
+        <v>1200</v>
+      </c>
       <c r="F43" s="1" t="s">
         <v>894</v>
       </c>
       <c r="G43" s="19" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H43" s="19" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="34"/>
+      <c r="E44" s="21"/>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="1:8" ht="51" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>699</v>
       </c>
@@ -9132,14 +10289,21 @@
       <c r="C45" s="1" t="s">
         <v>973</v>
       </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="19" t="s">
+        <v>1201</v>
+      </c>
       <c r="F45" s="1" t="s">
         <v>895</v>
       </c>
       <c r="G45" s="19" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H45" s="19" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>700</v>
       </c>
@@ -9149,15 +10313,26 @@
       <c r="C46" s="1" t="s">
         <v>974</v>
       </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="19" t="s">
+        <v>1202</v>
+      </c>
       <c r="F46" s="1" t="s">
         <v>896</v>
       </c>
       <c r="G46" s="19" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H46" s="19" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D47" s="34"/>
+      <c r="E47" s="21"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="1:8" ht="51" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>701</v>
       </c>
@@ -9167,14 +10342,23 @@
       <c r="C48" s="1" t="s">
         <v>979</v>
       </c>
+      <c r="D48" s="29" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>1204</v>
+      </c>
       <c r="F48" s="1" t="s">
         <v>897</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H48" s="39" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>702</v>
       </c>
@@ -9184,15 +10368,26 @@
       <c r="C49" s="17" t="s">
         <v>206</v>
       </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="36" t="s">
+        <v>1205</v>
+      </c>
       <c r="F49" s="1" t="s">
         <v>898</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H49" s="19" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D50" s="34"/>
+      <c r="E50" s="21"/>
+      <c r="H50" s="21"/>
+    </row>
+    <row r="51" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>703</v>
       </c>
@@ -9202,14 +10397,21 @@
       <c r="C51" s="27" t="s">
         <v>981</v>
       </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="19" t="s">
+        <v>1206</v>
+      </c>
       <c r="F51" s="1" t="s">
         <v>899</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H51" s="19" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>704</v>
       </c>
@@ -9219,15 +10421,26 @@
       <c r="C52" s="27" t="s">
         <v>980</v>
       </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="19" t="s">
+        <v>1207</v>
+      </c>
       <c r="F52" s="1" t="s">
         <v>900</v>
       </c>
       <c r="G52" s="18" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H52" s="19" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D53" s="34"/>
+      <c r="E53" s="21"/>
+      <c r="H53" s="21"/>
+    </row>
+    <row r="54" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>705</v>
       </c>
@@ -9237,14 +10450,21 @@
       <c r="C54" s="1" t="s">
         <v>982</v>
       </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="19" t="s">
+        <v>1208</v>
+      </c>
       <c r="F54" s="1" t="s">
         <v>901</v>
       </c>
       <c r="G54" s="18" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H54" s="19" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>706</v>
       </c>
@@ -9254,14 +10474,21 @@
       <c r="C55" s="27" t="s">
         <v>983</v>
       </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="36" t="s">
+        <v>1209</v>
+      </c>
       <c r="F55" s="1" t="s">
         <v>902</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H55" s="39" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>707</v>
       </c>
@@ -9271,14 +10498,21 @@
       <c r="C56" s="27" t="s">
         <v>984</v>
       </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="19" t="s">
+        <v>1210</v>
+      </c>
       <c r="F56" s="1" t="s">
         <v>903</v>
       </c>
       <c r="G56" s="18" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H56" s="39" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>708</v>
       </c>
@@ -9288,15 +10522,28 @@
       <c r="C57" s="27" t="s">
         <v>985</v>
       </c>
+      <c r="D57" s="29" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>1212</v>
+      </c>
       <c r="F57" s="1" t="s">
         <v>904</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H57" s="19" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D58" s="34"/>
+      <c r="E58" s="21"/>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>709</v>
       </c>
@@ -9306,14 +10553,23 @@
       <c r="C59" s="27" t="s">
         <v>960</v>
       </c>
+      <c r="D59" s="29" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>1214</v>
+      </c>
       <c r="F59" s="1" t="s">
         <v>905</v>
       </c>
       <c r="G59" s="18" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H59" s="39" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>710</v>
       </c>
@@ -9323,15 +10579,26 @@
       <c r="C60" s="27" t="s">
         <v>986</v>
       </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="19" t="s">
+        <v>1215</v>
+      </c>
       <c r="F60" s="1" t="s">
         <v>906</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H60" s="19" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D61" s="34"/>
+      <c r="E61" s="21"/>
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>711</v>
       </c>
@@ -9341,14 +10608,21 @@
       <c r="C62" s="27" t="s">
         <v>987</v>
       </c>
+      <c r="D62" s="29"/>
+      <c r="E62" s="37" t="s">
+        <v>1216</v>
+      </c>
       <c r="F62" s="1" t="s">
         <v>907</v>
       </c>
       <c r="G62" s="18" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H62" s="39" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>712</v>
       </c>
@@ -9358,14 +10632,21 @@
       <c r="C63" s="27" t="s">
         <v>988</v>
       </c>
+      <c r="D63" s="29"/>
+      <c r="E63" s="36" t="s">
+        <v>1217</v>
+      </c>
       <c r="F63" s="1" t="s">
         <v>908</v>
       </c>
       <c r="G63" s="19" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H63" s="19" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>713</v>
       </c>
@@ -9375,14 +10656,21 @@
       <c r="C64" s="27" t="s">
         <v>369</v>
       </c>
+      <c r="D64" s="29"/>
+      <c r="E64" s="37" t="s">
+        <v>527</v>
+      </c>
       <c r="F64" s="1" t="s">
         <v>909</v>
       </c>
       <c r="G64" s="18" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H64" s="19" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>714</v>
       </c>
@@ -9392,15 +10680,28 @@
       <c r="C65" s="27" t="s">
         <v>989</v>
       </c>
+      <c r="D65" s="29" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>1219</v>
+      </c>
       <c r="F65" s="1" t="s">
         <v>910</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H65" s="19" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D66" s="34"/>
+      <c r="E66" s="21"/>
+      <c r="H66" s="21"/>
+    </row>
+    <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>715</v>
       </c>
@@ -9410,14 +10711,21 @@
       <c r="C67" s="1" t="s">
         <v>990</v>
       </c>
+      <c r="D67" s="29"/>
+      <c r="E67" s="19" t="s">
+        <v>1220</v>
+      </c>
       <c r="F67" s="1" t="s">
         <v>911</v>
       </c>
       <c r="G67" s="18" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H67" s="19" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>716</v>
       </c>
@@ -9427,14 +10735,21 @@
       <c r="C68" s="1" t="s">
         <v>322</v>
       </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="37" t="s">
+        <v>1221</v>
+      </c>
       <c r="F68" s="1" t="s">
         <v>912</v>
       </c>
       <c r="G68" s="18" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H68" s="19" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>717</v>
       </c>
@@ -9444,15 +10759,26 @@
       <c r="C69" s="1" t="s">
         <v>991</v>
       </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="19" t="s">
+        <v>1222</v>
+      </c>
       <c r="F69" s="1" t="s">
         <v>913</v>
       </c>
       <c r="G69" s="18" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H69" s="19" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D70" s="34"/>
+      <c r="E70" s="21"/>
+      <c r="H70" s="21"/>
+    </row>
+    <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>718</v>
       </c>
@@ -9462,14 +10788,21 @@
       <c r="C71" s="1" t="s">
         <v>992</v>
       </c>
+      <c r="D71" s="29"/>
+      <c r="E71" s="19" t="s">
+        <v>1223</v>
+      </c>
       <c r="F71" s="1" t="s">
         <v>914</v>
       </c>
       <c r="G71" s="18" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H71" s="39" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="51" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>719</v>
       </c>
@@ -9479,14 +10812,21 @@
       <c r="C72" s="1" t="s">
         <v>993</v>
       </c>
+      <c r="D72" s="29"/>
+      <c r="E72" s="19" t="s">
+        <v>1224</v>
+      </c>
       <c r="F72" s="1" t="s">
         <v>915</v>
       </c>
       <c r="G72" s="19" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H72" s="39" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>720</v>
       </c>
@@ -9496,14 +10836,23 @@
       <c r="C73" s="1" t="s">
         <v>994</v>
       </c>
+      <c r="D73" s="29" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>1226</v>
+      </c>
       <c r="F73" s="1" t="s">
         <v>916</v>
       </c>
       <c r="G73" s="18" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H73" s="19" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>721</v>
       </c>
@@ -9513,15 +10862,26 @@
       <c r="C74" s="27" t="s">
         <v>995</v>
       </c>
+      <c r="D74" s="29"/>
+      <c r="E74" s="19" t="s">
+        <v>1227</v>
+      </c>
       <c r="F74" s="1" t="s">
         <v>917</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H74" s="19" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D75" s="34"/>
+      <c r="E75" s="21"/>
+      <c r="H75" s="21"/>
+    </row>
+    <row r="76" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>722</v>
       </c>
@@ -9531,14 +10891,23 @@
       <c r="C76" s="1" t="s">
         <v>996</v>
       </c>
+      <c r="D76" s="29" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>1219</v>
+      </c>
       <c r="F76" s="1" t="s">
         <v>918</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H76" s="19" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>723</v>
       </c>
@@ -9548,14 +10917,21 @@
       <c r="C77" s="1" t="s">
         <v>997</v>
       </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="19" t="s">
+        <v>1229</v>
+      </c>
       <c r="F77" s="1" t="s">
         <v>919</v>
       </c>
       <c r="G77" s="18" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H77" s="19" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>724</v>
       </c>
@@ -9565,14 +10941,21 @@
       <c r="C78" s="1" t="s">
         <v>998</v>
       </c>
+      <c r="D78" s="29"/>
+      <c r="E78" s="19" t="s">
+        <v>1230</v>
+      </c>
       <c r="F78" s="1" t="s">
         <v>920</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H78" s="19" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>725</v>
       </c>
@@ -9582,15 +10965,26 @@
       <c r="C79" s="1" t="s">
         <v>999</v>
       </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="18" t="s">
+        <v>1231</v>
+      </c>
       <c r="F79" s="1" t="s">
         <v>921</v>
       </c>
       <c r="G79" s="18" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H79" s="19" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D80" s="34"/>
+      <c r="E80" s="21"/>
+      <c r="H80" s="21"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>726</v>
       </c>
@@ -9600,14 +10994,21 @@
       <c r="C81" s="1" t="s">
         <v>1000</v>
       </c>
+      <c r="D81" s="29"/>
+      <c r="E81" s="36" t="s">
+        <v>1232</v>
+      </c>
       <c r="F81" s="1" t="s">
         <v>922</v>
       </c>
       <c r="G81" s="18" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H81" s="19" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="34" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>727</v>
       </c>
@@ -9617,15 +11018,26 @@
       <c r="C82" s="1" t="s">
         <v>624</v>
       </c>
+      <c r="D82" s="29"/>
+      <c r="E82" s="38" t="s">
+        <v>1233</v>
+      </c>
       <c r="F82" s="1" t="s">
         <v>923</v>
       </c>
       <c r="G82" s="18" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H82" s="19" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D83" s="34"/>
+      <c r="E83" s="21"/>
+      <c r="H83" s="21"/>
+    </row>
+    <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>728</v>
       </c>
@@ -9635,14 +11047,21 @@
       <c r="C84" s="27" t="s">
         <v>1001</v>
       </c>
+      <c r="D84" s="29"/>
+      <c r="E84" s="19" t="s">
+        <v>1234</v>
+      </c>
       <c r="F84" s="1" t="s">
         <v>924</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H84" s="19" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>729</v>
       </c>
@@ -9652,14 +11071,23 @@
       <c r="C85" s="1" t="s">
         <v>1002</v>
       </c>
+      <c r="D85" s="29" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>1236</v>
+      </c>
       <c r="F85" s="1" t="s">
         <v>925</v>
       </c>
       <c r="G85" s="18" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H85" s="39" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>730</v>
       </c>
@@ -9669,15 +11097,26 @@
       <c r="C86" s="1" t="s">
         <v>977</v>
       </c>
+      <c r="D86" s="29"/>
+      <c r="E86" s="19" t="s">
+        <v>1237</v>
+      </c>
       <c r="F86" s="1" t="s">
         <v>926</v>
       </c>
       <c r="G86" s="18" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H86" s="19" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D87" s="34"/>
+      <c r="E87" s="21"/>
+      <c r="H87" s="21"/>
+    </row>
+    <row r="88" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>731</v>
       </c>
@@ -9687,14 +11126,21 @@
       <c r="C88" s="1" t="s">
         <v>1003</v>
       </c>
+      <c r="D88" s="29"/>
+      <c r="E88" s="19" t="s">
+        <v>1238</v>
+      </c>
       <c r="F88" s="1" t="s">
         <v>927</v>
       </c>
       <c r="G88" s="18" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H88" s="39" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>732</v>
       </c>
@@ -9704,14 +11150,21 @@
       <c r="C89" s="1" t="s">
         <v>1004</v>
       </c>
+      <c r="D89" s="29"/>
+      <c r="E89" s="19" t="s">
+        <v>1239</v>
+      </c>
       <c r="F89" s="1" t="s">
         <v>928</v>
       </c>
       <c r="G89" s="18" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H89" s="19" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>733</v>
       </c>
@@ -9721,14 +11174,21 @@
       <c r="C90" s="1" t="s">
         <v>1005</v>
       </c>
+      <c r="D90" s="29"/>
+      <c r="E90" s="19" t="s">
+        <v>1195</v>
+      </c>
       <c r="F90" s="1" t="s">
         <v>929</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H90" s="19" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>734</v>
       </c>
@@ -9738,15 +11198,28 @@
       <c r="C91" s="27" t="s">
         <v>1006</v>
       </c>
+      <c r="D91" s="29" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>1241</v>
+      </c>
       <c r="F91" s="1" t="s">
         <v>930</v>
       </c>
       <c r="G91" s="19" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H91" s="19" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D92" s="34"/>
+      <c r="E92" s="21"/>
+      <c r="H92" s="21"/>
+    </row>
+    <row r="93" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>735</v>
       </c>
@@ -9756,14 +11229,23 @@
       <c r="C93" s="1" t="s">
         <v>1007</v>
       </c>
+      <c r="D93" s="29" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>1243</v>
+      </c>
       <c r="F93" s="1" t="s">
         <v>931</v>
       </c>
       <c r="G93" s="18" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H93" s="39" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>736</v>
       </c>
@@ -9773,14 +11255,21 @@
       <c r="C94" s="1" t="s">
         <v>1008</v>
       </c>
+      <c r="D94" s="29"/>
+      <c r="E94" s="19" t="s">
+        <v>1244</v>
+      </c>
       <c r="F94" s="1" t="s">
         <v>932</v>
       </c>
       <c r="G94" s="18" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H94" s="39" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>737</v>
       </c>
@@ -9790,14 +11279,21 @@
       <c r="C95" s="1" t="s">
         <v>1009</v>
       </c>
+      <c r="D95" s="29"/>
+      <c r="E95" s="19" t="s">
+        <v>1245</v>
+      </c>
       <c r="F95" s="1" t="s">
         <v>933</v>
       </c>
       <c r="G95" s="19" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="34" x14ac:dyDescent="0.15">
+      <c r="H95" s="19" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="51" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>738</v>
       </c>
@@ -9807,15 +11303,26 @@
       <c r="C96" s="27" t="s">
         <v>1010</v>
       </c>
+      <c r="D96" s="29"/>
+      <c r="E96" s="19" t="s">
+        <v>1246</v>
+      </c>
       <c r="F96" s="1" t="s">
         <v>934</v>
       </c>
       <c r="G96" s="18" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H96" s="19" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D97" s="34"/>
+      <c r="E97" s="21"/>
+      <c r="H97" s="21"/>
+    </row>
+    <row r="98" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>739</v>
       </c>
@@ -9825,14 +11332,21 @@
       <c r="C98" s="1" t="s">
         <v>1011</v>
       </c>
+      <c r="D98" s="29"/>
+      <c r="E98" s="19" t="s">
+        <v>1168</v>
+      </c>
       <c r="F98" s="1" t="s">
         <v>935</v>
       </c>
       <c r="G98" s="18" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H98" s="39" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>740</v>
       </c>
@@ -9842,14 +11356,21 @@
       <c r="C99" s="1" t="s">
         <v>1012</v>
       </c>
+      <c r="D99" s="29"/>
+      <c r="E99" s="19" t="s">
+        <v>1247</v>
+      </c>
       <c r="F99" s="1" t="s">
         <v>936</v>
       </c>
       <c r="G99" s="18" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H99" s="19" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>741</v>
       </c>
@@ -9859,15 +11380,26 @@
       <c r="C100" s="1" t="s">
         <v>622</v>
       </c>
+      <c r="D100" s="29"/>
+      <c r="E100" s="19" t="s">
+        <v>1248</v>
+      </c>
       <c r="F100" s="1" t="s">
         <v>937</v>
       </c>
       <c r="G100" s="18" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H100" s="19" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D101" s="34"/>
+      <c r="E101" s="21"/>
+      <c r="H101" s="21"/>
+    </row>
+    <row r="102" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>742</v>
       </c>
@@ -9877,14 +11409,21 @@
       <c r="C102" s="27" t="s">
         <v>1013</v>
       </c>
+      <c r="D102" s="29"/>
+      <c r="E102" s="19" t="s">
+        <v>1249</v>
+      </c>
       <c r="F102" s="1" t="s">
         <v>938</v>
       </c>
       <c r="G102" s="18" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H102" s="19" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="51" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>743</v>
       </c>
@@ -9894,14 +11433,21 @@
       <c r="C103" s="1" t="s">
         <v>1014</v>
       </c>
+      <c r="D103" s="29"/>
+      <c r="E103" s="19" t="s">
+        <v>1250</v>
+      </c>
       <c r="F103" s="1" t="s">
         <v>939</v>
       </c>
       <c r="G103" s="19" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H103" s="39" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>744</v>
       </c>
@@ -9911,15 +11457,26 @@
       <c r="C104" s="1" t="s">
         <v>1015</v>
       </c>
+      <c r="D104" s="29"/>
+      <c r="E104" s="19" t="s">
+        <v>1251</v>
+      </c>
       <c r="F104" s="1" t="s">
         <v>940</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H104" s="19" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D105" s="34"/>
+      <c r="E105" s="21"/>
+      <c r="H105" s="21"/>
+    </row>
+    <row r="106" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>745</v>
       </c>
@@ -9929,14 +11486,21 @@
       <c r="C106" s="1" t="s">
         <v>1016</v>
       </c>
+      <c r="D106" s="29"/>
+      <c r="E106" s="19" t="s">
+        <v>1252</v>
+      </c>
       <c r="F106" s="1" t="s">
         <v>941</v>
       </c>
       <c r="G106" s="18" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H106" s="39" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>746</v>
       </c>
@@ -9946,15 +11510,26 @@
       <c r="C107" s="1" t="s">
         <v>969</v>
       </c>
+      <c r="D107" s="29"/>
+      <c r="E107" s="19" t="s">
+        <v>1195</v>
+      </c>
       <c r="F107" s="1" t="s">
         <v>942</v>
       </c>
       <c r="G107" s="18" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H107" s="39" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D108" s="34"/>
+      <c r="E108" s="21"/>
+      <c r="H108" s="21"/>
+    </row>
+    <row r="109" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>751</v>
       </c>
@@ -9964,14 +11539,21 @@
       <c r="C109" s="1" t="s">
         <v>1017</v>
       </c>
+      <c r="D109" s="29"/>
+      <c r="E109" s="19" t="s">
+        <v>1253</v>
+      </c>
       <c r="F109" s="1" t="s">
         <v>943</v>
       </c>
       <c r="G109" s="18" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H109" s="39" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>752</v>
       </c>
@@ -9981,14 +11563,21 @@
       <c r="C110" s="1" t="s">
         <v>1018</v>
       </c>
+      <c r="D110" s="29"/>
+      <c r="E110" s="19" t="s">
+        <v>1254</v>
+      </c>
       <c r="F110" s="1" t="s">
         <v>944</v>
       </c>
       <c r="G110" s="18" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H110" s="39" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>753</v>
       </c>
@@ -9998,14 +11587,23 @@
       <c r="C111" s="1" t="s">
         <v>1019</v>
       </c>
+      <c r="D111" s="29" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>1256</v>
+      </c>
       <c r="F111" s="1" t="s">
         <v>945</v>
       </c>
       <c r="G111" s="18" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H111" s="39" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>754</v>
       </c>
@@ -10015,15 +11613,28 @@
       <c r="C112" s="1" t="s">
         <v>1020</v>
       </c>
+      <c r="D112" s="29" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>1258</v>
+      </c>
       <c r="F112" s="1" t="s">
         <v>946</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H112" s="19" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D113" s="34"/>
+      <c r="E113" s="21"/>
+      <c r="H113" s="21"/>
+    </row>
+    <row r="114" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>755</v>
       </c>
@@ -10033,14 +11644,23 @@
       <c r="C114" s="1" t="s">
         <v>1021</v>
       </c>
+      <c r="D114" s="29" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>1260</v>
+      </c>
       <c r="F114" s="1" t="s">
         <v>947</v>
       </c>
       <c r="G114" s="18" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H114" s="39" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>756</v>
       </c>
@@ -10050,14 +11670,23 @@
       <c r="C115" s="1" t="s">
         <v>1022</v>
       </c>
+      <c r="D115" s="29" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>1262</v>
+      </c>
       <c r="F115" s="1" t="s">
         <v>948</v>
       </c>
       <c r="G115" s="18" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H115" s="19" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>757</v>
       </c>
@@ -10067,14 +11696,21 @@
       <c r="C116" s="1" t="s">
         <v>1023</v>
       </c>
+      <c r="D116" s="29"/>
+      <c r="E116" s="19" t="s">
+        <v>1263</v>
+      </c>
       <c r="F116" s="1" t="s">
         <v>949</v>
       </c>
       <c r="G116" s="18" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H116" s="39" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>758</v>
       </c>
@@ -10084,14 +11720,23 @@
       <c r="C117" s="28" t="s">
         <v>1025</v>
       </c>
+      <c r="D117" s="29" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>1265</v>
+      </c>
       <c r="F117" s="1" t="s">
         <v>950</v>
       </c>
       <c r="G117" s="18" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H117" s="19" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="34" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>759</v>
       </c>
@@ -10101,15 +11746,24 @@
       <c r="C118" s="1" t="s">
         <v>1024</v>
       </c>
+      <c r="D118" s="29" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>1267</v>
+      </c>
       <c r="F118" s="1" t="s">
         <v>951</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>1098</v>
       </c>
+      <c r="H118" s="39" t="s">
+        <v>1340</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10120,7 +11774,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C17" sqref="C17:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -10149,6 +11803,9 @@
       <c r="B3" s="1" t="s">
         <v>1101</v>
       </c>
+      <c r="C3" s="29" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -10157,6 +11814,9 @@
       <c r="B4" s="1" t="s">
         <v>1105</v>
       </c>
+      <c r="C4" s="29" t="s">
+        <v>1144</v>
+      </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -10165,6 +11825,9 @@
       <c r="B5" s="1" t="s">
         <v>1106</v>
       </c>
+      <c r="C5" s="29" t="s">
+        <v>1145</v>
+      </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -10173,6 +11836,9 @@
       <c r="B6" s="1" t="s">
         <v>1107</v>
       </c>
+      <c r="C6" s="29" t="s">
+        <v>1146</v>
+      </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -10181,6 +11847,9 @@
       <c r="B7" s="1" t="s">
         <v>1108</v>
       </c>
+      <c r="C7" s="29" t="s">
+        <v>1147</v>
+      </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -10189,6 +11858,9 @@
       <c r="B8" s="1" t="s">
         <v>1113</v>
       </c>
+      <c r="C8" s="29" t="s">
+        <v>1148</v>
+      </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -10197,6 +11869,9 @@
       <c r="B9" s="27" t="s">
         <v>1114</v>
       </c>
+      <c r="C9" s="29" t="s">
+        <v>1149</v>
+      </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -10205,6 +11880,9 @@
       <c r="B10" s="1" t="s">
         <v>1115</v>
       </c>
+      <c r="C10" s="29" t="s">
+        <v>1150</v>
+      </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -10213,6 +11891,9 @@
       <c r="B11" s="27" t="s">
         <v>1116</v>
       </c>
+      <c r="C11" s="29" t="s">
+        <v>1151</v>
+      </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -10221,6 +11902,9 @@
       <c r="B12" s="27" t="s">
         <v>1117</v>
       </c>
+      <c r="C12" s="29" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
@@ -10229,6 +11913,9 @@
       <c r="B13" s="1" t="s">
         <v>1119</v>
       </c>
+      <c r="C13" s="29" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -10236,6 +11923,9 @@
       </c>
       <c r="B14" s="1" t="s">
         <v>1121</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15"/>
@@ -10250,72 +11940,96 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A17" s="30" t="s">
         <v>1135</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="C17" s="29" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" s="30" t="s">
         <v>1134</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="C18" s="29" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="30" t="s">
         <v>1133</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="C19" s="29" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" s="30" t="s">
         <v>1132</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="C20" s="29" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A21" s="30" t="s">
         <v>1132</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="C21" s="29" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="30" t="s">
         <v>1136</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="C22" s="29" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="30" t="s">
         <v>1138</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
+      <c r="C23" s="29" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>1137</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>1130</v>
       </c>
+      <c r="C24" s="29" t="s">
+        <v>1155</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cms/language/技能翻译需求.xlsx
+++ b/cms/language/技能翻译需求.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="2472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="2472">
   <si>
     <t>牺牲</t>
     <phoneticPr fontId="23" type="noConversion"/>
@@ -9698,18 +9698,10 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>抗法</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>圣能</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>神创</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>月圆</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -9763,6 +9755,14 @@
   </si>
   <si>
     <t>永久提升10%智力；死亡时，给群体目标造成XX%法攻的火属性法术伤害</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理免疫</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术免疫</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -15266,7 +15266,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
@@ -15316,7 +15316,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
     </row>
@@ -15366,7 +15366,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
     </row>
@@ -15416,7 +15416,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
     </row>
@@ -15466,7 +15466,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
     </row>
@@ -15516,7 +15516,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
     </row>
@@ -15566,7 +15566,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
     </row>
@@ -15616,7 +15616,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
     </row>
@@ -15666,7 +15666,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
     </row>
@@ -15716,7 +15716,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
     </row>
@@ -15769,7 +15769,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
     </row>
@@ -15819,7 +15819,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
     </row>
@@ -15862,7 +15862,7 @@
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
     </row>
-    <row r="53" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
     </row>
@@ -15915,7 +15915,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
     </row>
@@ -15965,7 +15965,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
     </row>
@@ -16018,7 +16018,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
     </row>
@@ -16071,7 +16071,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
     </row>
@@ -16127,7 +16127,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
     </row>
@@ -16200,7 +16200,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
     </row>
@@ -16296,7 +16296,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
     </row>
@@ -16385,7 +16385,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
     </row>
@@ -16481,7 +16481,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G87" s="21"/>
       <c r="H87" s="21"/>
     </row>
@@ -16570,7 +16570,7 @@
       <c r="G91" s="24"/>
       <c r="H91" s="24"/>
     </row>
-    <row r="92" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G92" s="21"/>
       <c r="H92" s="21"/>
     </row>
@@ -16675,7 +16675,7 @@
       <c r="G97" s="24"/>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G98" s="21"/>
       <c r="H98" s="21"/>
     </row>
@@ -16751,7 +16751,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G102" s="21"/>
       <c r="H102" s="21"/>
     </row>
@@ -16847,7 +16847,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G107" s="21"/>
       <c r="H107" s="21"/>
     </row>
@@ -16943,7 +16943,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G112" s="21"/>
       <c r="H112" s="21"/>
     </row>
@@ -17039,7 +17039,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G117" s="21"/>
       <c r="H117" s="21"/>
     </row>
@@ -17131,7 +17131,7 @@
       <c r="G121" s="24"/>
       <c r="H121" s="24"/>
     </row>
-    <row r="122" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G122" s="21"/>
       <c r="H122" s="21"/>
     </row>
@@ -17246,7 +17246,7 @@
       <c r="G127" s="24"/>
       <c r="H127" s="24"/>
     </row>
-    <row r="128" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G128" s="21"/>
       <c r="H128" s="21"/>
     </row>
@@ -17342,7 +17342,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G133" s="21"/>
       <c r="H133" s="21"/>
     </row>
@@ -17438,7 +17438,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="20" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G138" s="21"/>
       <c r="H138" s="21"/>
     </row>
@@ -18857,7 +18857,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="26" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D58" s="32"/>
       <c r="E58" s="21"/>
       <c r="H58" s="21"/>
@@ -18912,7 +18912,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="26" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D61" s="32"/>
       <c r="E61" s="21"/>
       <c r="H61" s="21"/>
@@ -19015,7 +19015,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="26" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D66" s="32"/>
       <c r="E66" s="21"/>
       <c r="H66" s="21"/>
@@ -19092,7 +19092,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="26" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D70" s="32"/>
       <c r="E70" s="21"/>
       <c r="H70" s="21"/>
@@ -19195,7 +19195,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="26" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D75" s="32"/>
       <c r="E75" s="21"/>
       <c r="H75" s="21"/>
@@ -19298,7 +19298,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="26" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D80" s="32"/>
       <c r="E80" s="21"/>
       <c r="H80" s="21"/>
@@ -19351,7 +19351,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="26" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D83" s="32"/>
       <c r="E83" s="21"/>
       <c r="H83" s="21"/>
@@ -19430,7 +19430,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="26" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D87" s="32"/>
       <c r="E87" s="21"/>
       <c r="H87" s="21"/>
@@ -19533,7 +19533,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="26" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D92" s="32"/>
       <c r="E92" s="21"/>
       <c r="H92" s="21"/>
@@ -19636,7 +19636,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="26" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D97" s="32"/>
       <c r="E97" s="21"/>
       <c r="H97" s="21"/>
@@ -19713,7 +19713,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="26" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D101" s="32"/>
       <c r="E101" s="21"/>
       <c r="H101" s="21"/>
@@ -19790,7 +19790,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="26" customFormat="1" ht="17.100000000000001" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D105" s="32"/>
       <c r="E105" s="21"/>
       <c r="H105" s="21"/>
@@ -21135,7 +21135,7 @@
         <v>bossminghe64Nvyao54Tips</v>
       </c>
       <c r="G68" s="54" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -21646,7 +21646,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -21707,18 +21707,16 @@
         <v>psvshiliantaNvyao5Name</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>2439</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>449</v>
-      </c>
+        <v>2470</v>
+      </c>
+      <c r="D3" s="16"/>
       <c r="E3" s="57"/>
       <c r="F3" s="57" t="str">
         <f>CONCATENATE(A3,"Tips")</f>
         <v>psvshiliantaNvyao5Tips</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
@@ -21742,8 +21740,8 @@
         <f>CONCATENATE(A5,"Name")</f>
         <v>psvshiliantaWeitianshi5Name</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>2307</v>
+      <c r="C5" s="16" t="s">
+        <v>2470</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="57"/>
@@ -21752,7 +21750,7 @@
         <v>psvshiliantaWeitianshi5Tips</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="H5" s="64"/>
       <c r="I5" s="64"/>
@@ -21777,18 +21775,16 @@
         <v>bossshiliantaPanshen21Name</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>438</v>
-      </c>
+        <v>2470</v>
+      </c>
+      <c r="D7" s="16"/>
       <c r="E7" s="57"/>
       <c r="F7" s="57" t="str">
         <f>CONCATENATE(A7,"Tips")</f>
         <v>bossshiliantaPanshen21Tips</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="H7" s="64"/>
       <c r="I7" s="64"/>
@@ -21813,7 +21809,7 @@
         <v>bossshiliantaKairuisi56Name</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>2455</v>
+        <v>2471</v>
       </c>
       <c r="D9" s="63"/>
       <c r="E9" s="57"/>
@@ -21822,7 +21818,7 @@
         <v>bossshiliantaKairuisi56Tips</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="H9" s="64"/>
       <c r="I9" s="64"/>
@@ -21858,7 +21854,7 @@
         <v>psvshiliantaXiaochou2Tips</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="H11" s="64"/>
       <c r="I11" s="64"/>
@@ -21894,7 +21890,7 @@
         <v>psvshiliantaXiaochou4Tips</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="H13" s="64"/>
       <c r="I13" s="64"/>
@@ -21919,7 +21915,7 @@
         <v>bossshiliantaIfrit46Name</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="57"/>
@@ -21928,7 +21924,7 @@
         <v>bossshiliantaIfrit46Tips</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="H15" s="64"/>
       <c r="I15" s="64"/>
@@ -21953,13 +21949,13 @@
         <v>ultshiliantaChange1Name</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="F17" s="54" t="s">
         <v>2444</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -21970,14 +21966,14 @@
         <f>CONCATENATE(A18,"Name")</f>
         <v>psvshiliantaChange1Name</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>2457</v>
+      <c r="C18" s="57" t="s">
+        <v>2471</v>
       </c>
       <c r="F18" s="54" t="s">
         <v>2445</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -21990,13 +21986,13 @@
         <v>ultshiliantaDujiaoshou1Name</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="F20" s="54" t="s">
         <v>2446</v>
       </c>
       <c r="G20" s="54" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -22007,14 +22003,14 @@
         <f>CONCATENATE(A21,"Name")</f>
         <v>psvshiliantaDujiaoshou1Name</v>
       </c>
-      <c r="C21" s="54" t="s">
-        <v>978</v>
+      <c r="C21" s="57" t="s">
+        <v>2471</v>
       </c>
       <c r="F21" s="54" t="s">
         <v>2447</v>
       </c>
       <c r="G21" s="54" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
     </row>
   </sheetData>
